--- a/Documentation/JDB_UsesCaseScenario.xlsx
+++ b/Documentation/JDB_UsesCaseScenario.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessy.borcard\OneDrive - CPNV\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eurêka!\Eureka\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PuzzleAléatoire" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
   <si>
     <t>Nom</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>en apuyant sur F1</t>
+  </si>
+  <si>
+    <t>le chemin d'accès est inaccessible</t>
+  </si>
+  <si>
+    <t>un message d'erreur est retourné au joueur</t>
   </si>
 </sst>
 </file>
@@ -714,8 +720,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,8 +963,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,7 +1222,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C35"/>
+      <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,7 +1468,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,9 +1551,15 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
@@ -1683,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/JDB_UsesCaseScenario.xlsx
+++ b/Documentation/JDB_UsesCaseScenario.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
   <si>
     <t>Nom</t>
   </si>
@@ -111,39 +111,15 @@
     <t xml:space="preserve">Un puzzle Manuel est généré </t>
   </si>
   <si>
-    <t>Le joueur choisit glisse une porte de la liste</t>
-  </si>
-  <si>
     <t>la porte est placé dans le jeu</t>
   </si>
   <si>
-    <t>il relache le bouton prématurémment</t>
-  </si>
-  <si>
-    <t>l'action est annulé</t>
-  </si>
-  <si>
     <t>Avoir une puzzle manuel à chaque partie</t>
   </si>
   <si>
-    <t xml:space="preserve">le joueur relie les portes </t>
-  </si>
-  <si>
-    <t>un fil est créer entre les portes</t>
-  </si>
-  <si>
-    <t>une fil entrave un autre fil</t>
-  </si>
-  <si>
-    <t>le fil n'est pas créer</t>
-  </si>
-  <si>
     <t>La partie est gagnée</t>
   </si>
   <si>
-    <t>le jeu affiche les resultat, temps, et termine la partie</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avoir une puzzle </t>
   </si>
   <si>
@@ -162,9 +138,6 @@
     <t>le résultat est juste</t>
   </si>
   <si>
-    <t>le jeu se termine en afficher le temps passé sur le puzzle</t>
-  </si>
-  <si>
     <t>Le joueur n'entre pas résultat</t>
   </si>
   <si>
@@ -226,6 +199,24 @@
   </si>
   <si>
     <t>un message d'erreur est retourné au joueur</t>
+  </si>
+  <si>
+    <t>Le joueur choisit une porte de la liste</t>
+  </si>
+  <si>
+    <t>il choisit la même porte</t>
+  </si>
+  <si>
+    <t>rien ne change</t>
+  </si>
+  <si>
+    <t>le jeu se termine</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -720,8 +711,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,11 +796,11 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -961,10 +952,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:C16"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +986,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1039,83 +1030,73 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>35</v>
+      <c r="A12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="11"/>
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10" t="s">
-        <v>26</v>
+      <c r="A14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
@@ -1201,16 +1182,6 @@
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1222,7 +1193,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C13"/>
+      <selection activeCell="C13" sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1253,7 +1224,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1269,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1286,66 +1257,66 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>49</v>
-      </c>
       <c r="C12" s="10" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1483,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1499,7 +1470,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1507,7 +1478,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1515,7 +1486,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1532,33 +1503,33 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1695,9 +1666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1711,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1727,7 +1696,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1735,7 +1704,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1743,7 +1712,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1760,20 +1729,20 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">

--- a/Documentation/JDB_UsesCaseScenario.xlsx
+++ b/Documentation/JDB_UsesCaseScenario.xlsx
@@ -9,15 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PuzzleAléatoire" sheetId="1" r:id="rId1"/>
-    <sheet name="PuzzleManuel" sheetId="2" r:id="rId2"/>
-    <sheet name="RésulutionPuzzle" sheetId="3" r:id="rId3"/>
-    <sheet name="CaptureDécran" sheetId="4" r:id="rId4"/>
-    <sheet name="ThéorieDesPorteLogiques" sheetId="5" r:id="rId5"/>
+    <sheet name="ForPrinting" sheetId="6" r:id="rId2"/>
+    <sheet name="PuzzleManuel" sheetId="2" r:id="rId3"/>
+    <sheet name="RésulutionPuzzle" sheetId="3" r:id="rId4"/>
+    <sheet name="CaptureDécran" sheetId="4" r:id="rId5"/>
+    <sheet name="ThéorieDesPorteLogiques" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">CaptureDécran!$A$1:$C$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ForPrinting!$A$1:$C$26,ForPrinting!$A$28:$C$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">PuzzleAléatoire!$A$1:$C$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">PuzzleManuel!$A$3:$C$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">RésulutionPuzzle!$A$1:$C$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">ThéorieDesPorteLogiques!$A$1:$C$9</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="63">
   <si>
     <t>Nom</t>
   </si>
@@ -708,11 +717,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuil1"/>
+  <sheetPr codeName="Feuil1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,16 +957,535 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuil2"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil2">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A3" sqref="A3:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,11 +1715,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1431,11 +1965,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1659,14 +2197,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="A1:C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1877,5 +2421,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>